--- a/dataset-inventory/estc/estc_dataset_standard_4.xlsx
+++ b/dataset-inventory/estc/estc_dataset_standard_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\dataset-inventory\estc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173BDE9-02D4-4B5D-8F10-11B4FA435BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D7C1E-7B4C-43A0-9849-20D37F8A3575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20573,8 +20573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="96" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A517" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
